--- a/dados/DADOS.xlsx
+++ b/dados/DADOS.xlsx
@@ -2992,7 +2992,7 @@
   <si>
     <t xml:space="preserve">Essa novidade tem por objetivo aprimorar a conciliação de cartões, tornando mais rápido seu processamento, e deixando-a mais eficiente.
 Através de parceria com a Concil, utilizaremos a API deles para analisar a movimentação dos cartões que já constam como pagos, processá-los no Jacsys ERP, e baixá-los em suas respectivas contas, garantindo um ganho considerável de tempo para o Contas a Receber.
-OBS: Há a necessidade de contratação da ferramenta junto à parceira.</t>
+OBS: Há a necessidade de contratação da ferramenta junto à Jacsys.</t>
   </si>
   <si>
     <t xml:space="preserve">-----------------------------------SOLICITACAO------------------------------------------------------ A) Processo:    . Processo..................: (SQL) Integração Concil - Conciliação cartões    . Identificado na versao....: Novidade    . Disponivel na versao......: v8.25.001 - 19/08/2025 - 09:57    . Modulo....................: /FIN/    . Resp. Desenvolvimento.....: Adamison  B) Solicitado por.:    . OS: 0000000 - Cliente: Jacsys - Sr(a). Jacsys - Data: 01/08/2025 - Consultor: Jacsys  C) Descricao do solicitante:    • Conciliação de cartões utilizando API da Concil.  D) Sinopse:    • Conclusao Jacsys:      . Implementado.        - É necessário criar um CFG do tipo CCD com nome - CCDWEB          .. Obrigatório que seja esse tipo e esse nome.        - No CFG definir os seguintes parâmetros:          .. URL = URL da API da Concil.          .. TOK = Token do cliente, gerado após a contratação do serviço na Concil.          .. CED = Dados do cedente passados pela Concil na contratação do serviço.        - Na ferramenta "Retorno de cartões", necessário marcar a opção "WEB", selecionar o CFG CCDWEB          e processar a operação.  -----------------------------------DESENVOLVIMENTO-------------------------------------------------- A) Tipo de solucao apresentada.: Novidade B) Data e hora do Executavel...: 19/08/2025 - 09:57 C) Conclusao Desenvolvimento...: Implementado.  -----------------------------------TESTES DE CONSULTORES-------------------------------------------- A) Consultor...................: John    . Data e hora do Executavel.: 19/08/2025 - 09:57    . Data e hora do Teste......: 20/08/2025    . Resultado do Teste........: Aprovado    . Descricao do Teste........: Testes realizados.       Parametrizada base SUPORTE04 para testes.      . Criado CFG do tipo CCD e de nome CCDWEB.      Acesso ao módulo Financeiro.      Acesso ao menu Lançamentos -&gt; Processar Retorno de Cartões.      Marcada opção "WEB" -&gt; Selecionado CFG CCDWEB -&gt; Clique no botão "Filtrar":      . Foram apresentados os títulos possíveis de conciliação, que foram encontrados no portal da Concil e        que existem no banco de dados Jacsys.       Processo funcionando conforme proposto.      </t>
@@ -3420,7 +3420,7 @@
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53"/>
+      <selection pane="topLeft" activeCell="F52" activeCellId="0" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
